--- a/public/Sample_Dividend_Masters.xlsx
+++ b/public/Sample_Dividend_Masters.xlsx
@@ -5,7 +5,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Dividend Masters List" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -22,7 +22,7 @@
     <t>Dividend Per Share</t>
   </si>
   <si>
-    <t>Company Master Id*</t>
+    <t>Company Master Id</t>
   </si>
 </sst>
 </file>
@@ -31,13 +31,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="d/m/yy"/>
+    <numFmt numFmtId="59" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -49,27 +49,16 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,46 +68,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -128,29 +87,23 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -170,8 +123,6 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff757575"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -179,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -195,22 +146,22 @@
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -219,7 +170,7 @@
         <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
         <a:latin typeface="Helvetica Neue"/>
         <a:ea typeface="Helvetica Neue"/>
@@ -231,7 +182,7 @@
         <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Sheets">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -304,13 +255,31 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -378,10 +347,16 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -409,10 +384,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -667,7 +642,13 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -952,7 +933,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -980,10 +961,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1234,20 +1215,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="12.6719" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" customHeight="1">
+    <row r="1" ht="13.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1261,62 +1239,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="13.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="3">
+        <v>35360</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1996</v>
+      </c>
+      <c r="C2" s="4">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
